--- a/data/complaint_score.xlsx
+++ b/data/complaint_score.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\EIE3280\canteen_eva\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CCDE03B-0D0F-413C-B83C-48AB2ADE104D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E33B73C-2924-471D-9C85-6EC62A4FE26C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1163" yWindow="1605" windowWidth="12659" windowHeight="7823" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8663" yWindow="2445" windowWidth="13702" windowHeight="5798" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="166">
   <si>
     <t>NEUTRAL</t>
   </si>
@@ -73,9 +73,6 @@
     <t>逸夫</t>
   </si>
   <si>
-    <t>饺子</t>
-  </si>
-  <si>
     <t>肉包里的馅基本没什么肉，都是胡萝卜，以前是肉里参点胡萝卜，现在是胡萝卜里参肉，越来越差</t>
   </si>
   <si>
@@ -301,9 +298,6 @@
     <t>香波小碗菜，价格远高于思廷，量远少于思廷，明显宰客。今天迟到的半荤里的肉丝还是鸡肉丝？？都那么贵了还扣？</t>
   </si>
   <si>
-    <t>位置</t>
-  </si>
-  <si>
     <t>菜品中发现头发</t>
   </si>
   <si>
@@ -431,9 +425,6 @@
   </si>
   <si>
     <t>自选餐线的青菜里有塑料袋！</t>
-  </si>
-  <si>
-    <t>随便选了一碗类似回锅肉的碟子，完全是肥肉，一点瘦肉都看不到。看着实在是恶心至极。肥肉比瘦肉多也就算了，为什么翻来翻去一点瘦肉都没有？</t>
   </si>
   <si>
     <t>早上男朋友在逸夫买了个糕点带给我，吃的时候发现了一个钢丝球，要不是我吃到嘴里又吐出来了 现在这个小钢丝应该进我胃里了</t>
@@ -519,6 +510,21 @@
   </si>
   <si>
     <t>score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随便选了一碗类似回锅肉的碟子，完全是肥肉，一点瘦肉都看不到。看着实在是恶心至极。肥肉比瘦肉多也就算了，为什么翻来翻去一点瘦肉都没有？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开饭了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粤式烧腊</t>
+  </si>
+  <si>
+    <t>逸夫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -868,30 +874,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.53125" customWidth="1"/>
+    <col min="3" max="3" width="189.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1" t="s">
         <v>160</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>161</v>
-      </c>
-      <c r="C1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1001,10 +1007,10 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" t="s">
         <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
@@ -1015,13 +1021,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
@@ -1038,7 +1044,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
         <v>4</v>
@@ -1055,7 +1061,7 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
         <v>4</v>
@@ -1066,13 +1072,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>0</v>
@@ -1086,10 +1092,10 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
         <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
       </c>
       <c r="D13" t="s">
         <v>0</v>
@@ -1106,7 +1112,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>4</v>
@@ -1123,7 +1129,7 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
         <v>4</v>
@@ -1140,7 +1146,7 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
         <v>0</v>
@@ -1154,10 +1160,10 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
         <v>31</v>
-      </c>
-      <c r="C17" t="s">
-        <v>32</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
@@ -1171,10 +1177,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
         <v>33</v>
-      </c>
-      <c r="C18" t="s">
-        <v>34</v>
       </c>
       <c r="D18" t="s">
         <v>0</v>
@@ -1191,7 +1197,7 @@
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D19" t="s">
         <v>0</v>
@@ -1202,13 +1208,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>2</v>
+        <v>163</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D20" t="s">
         <v>15</v>
@@ -1219,13 +1225,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D21" t="s">
         <v>0</v>
@@ -1239,10 +1245,10 @@
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D22" t="s">
         <v>15</v>
@@ -1259,7 +1265,7 @@
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D23" t="s">
         <v>4</v>
@@ -1273,10 +1279,10 @@
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D24" t="s">
         <v>0</v>
@@ -1290,10 +1296,10 @@
         <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D25" t="s">
         <v>4</v>
@@ -1307,10 +1313,10 @@
         <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D26" t="s">
         <v>0</v>
@@ -1327,7 +1333,7 @@
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D27" t="s">
         <v>4</v>
@@ -1341,10 +1347,10 @@
         <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D28" t="s">
         <v>0</v>
@@ -1358,10 +1364,10 @@
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D29" t="s">
         <v>0</v>
@@ -1378,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D30" t="s">
         <v>0</v>
@@ -1389,13 +1395,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B31" t="s">
         <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D31" t="s">
         <v>4</v>
@@ -1412,7 +1418,7 @@
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D32" t="s">
         <v>0</v>
@@ -1429,7 +1435,7 @@
         <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D33" t="s">
         <v>0</v>
@@ -1443,10 +1449,10 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D34" t="s">
         <v>0</v>
@@ -1463,7 +1469,7 @@
         <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D35" t="s">
         <v>4</v>
@@ -1477,10 +1483,10 @@
         <v>16</v>
       </c>
       <c r="B36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" t="s">
         <v>52</v>
-      </c>
-      <c r="C36" t="s">
-        <v>53</v>
       </c>
       <c r="D36" t="s">
         <v>15</v>
@@ -1494,10 +1500,10 @@
         <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D37" t="s">
         <v>0</v>
@@ -1511,10 +1517,10 @@
         <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D38" t="s">
         <v>4</v>
@@ -1528,10 +1534,10 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D39" t="s">
         <v>4</v>
@@ -1548,7 +1554,7 @@
         <v>6</v>
       </c>
       <c r="C40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D40" t="s">
         <v>4</v>
@@ -1562,10 +1568,10 @@
         <v>16</v>
       </c>
       <c r="B41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D41" t="s">
         <v>15</v>
@@ -1579,10 +1585,10 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D42" t="s">
         <v>0</v>
@@ -1596,10 +1602,10 @@
         <v>16</v>
       </c>
       <c r="B43" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" t="s">
         <v>60</v>
-      </c>
-      <c r="C43" t="s">
-        <v>61</v>
       </c>
       <c r="D43" t="s">
         <v>0</v>
@@ -1610,13 +1616,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B44" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" t="s">
         <v>62</v>
-      </c>
-      <c r="C44" t="s">
-        <v>63</v>
       </c>
       <c r="D44" t="s">
         <v>4</v>
@@ -1630,10 +1636,10 @@
         <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C45" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D45" t="s">
         <v>0</v>
@@ -1647,10 +1653,10 @@
         <v>16</v>
       </c>
       <c r="B46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D46" t="s">
         <v>4</v>
@@ -1667,7 +1673,7 @@
         <v>6</v>
       </c>
       <c r="C47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D47" t="s">
         <v>0</v>
@@ -1681,10 +1687,10 @@
         <v>16</v>
       </c>
       <c r="B48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D48" t="s">
         <v>0</v>
@@ -1695,13 +1701,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B49" t="s">
+        <v>164</v>
+      </c>
+      <c r="C49" t="s">
         <v>68</v>
-      </c>
-      <c r="C49" t="s">
-        <v>69</v>
       </c>
       <c r="D49" t="s">
         <v>4</v>
@@ -1718,7 +1724,7 @@
         <v>6</v>
       </c>
       <c r="C50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D50" t="s">
         <v>4</v>
@@ -1732,10 +1738,10 @@
         <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C51" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D51" t="s">
         <v>0</v>
@@ -1752,7 +1758,7 @@
         <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D52" t="s">
         <v>0</v>
@@ -1769,7 +1775,7 @@
         <v>6</v>
       </c>
       <c r="C53" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D53" t="s">
         <v>15</v>
@@ -1783,10 +1789,10 @@
         <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C54" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D54" t="s">
         <v>0</v>
@@ -1797,13 +1803,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B55" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55" t="s">
         <v>75</v>
-      </c>
-      <c r="C55" t="s">
-        <v>76</v>
       </c>
       <c r="D55" t="s">
         <v>4</v>
@@ -1817,10 +1823,10 @@
         <v>5</v>
       </c>
       <c r="B56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D56" t="s">
         <v>4</v>
@@ -1831,13 +1837,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B57" t="s">
         <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D57" t="s">
         <v>15</v>
@@ -1851,10 +1857,10 @@
         <v>1</v>
       </c>
       <c r="B58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C58" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D58" t="s">
         <v>15</v>
@@ -1871,7 +1877,7 @@
         <v>6</v>
       </c>
       <c r="C59" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D59" t="s">
         <v>4</v>
@@ -1888,7 +1894,7 @@
         <v>6</v>
       </c>
       <c r="C60" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D60" t="s">
         <v>4</v>
@@ -1899,13 +1905,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C61" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D61" t="s">
         <v>0</v>
@@ -1919,10 +1925,10 @@
         <v>16</v>
       </c>
       <c r="B62" t="s">
+        <v>82</v>
+      </c>
+      <c r="C62" t="s">
         <v>83</v>
-      </c>
-      <c r="C62" t="s">
-        <v>84</v>
       </c>
       <c r="D62" t="s">
         <v>4</v>
@@ -1936,10 +1942,10 @@
         <v>1</v>
       </c>
       <c r="B63" t="s">
+        <v>84</v>
+      </c>
+      <c r="C63" t="s">
         <v>85</v>
-      </c>
-      <c r="C63" t="s">
-        <v>86</v>
       </c>
       <c r="D63" t="s">
         <v>15</v>
@@ -1956,7 +1962,7 @@
         <v>6</v>
       </c>
       <c r="C64" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D64" t="s">
         <v>4</v>
@@ -1973,7 +1979,7 @@
         <v>6</v>
       </c>
       <c r="C65" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D65" t="s">
         <v>4</v>
@@ -1990,7 +1996,7 @@
         <v>2</v>
       </c>
       <c r="C66" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D66" t="s">
         <v>4</v>
@@ -2004,10 +2010,10 @@
         <v>16</v>
       </c>
       <c r="B67" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C67" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D67" t="s">
         <v>15</v>
@@ -2024,7 +2030,7 @@
         <v>2</v>
       </c>
       <c r="C68" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D68" t="s">
         <v>15</v>
@@ -2038,10 +2044,10 @@
         <v>10</v>
       </c>
       <c r="B69" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C69" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D69" t="s">
         <v>15</v>
@@ -2055,10 +2061,10 @@
         <v>1</v>
       </c>
       <c r="B70" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
       <c r="C70" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D70" t="s">
         <v>0</v>
@@ -2072,10 +2078,10 @@
         <v>16</v>
       </c>
       <c r="B71" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C71" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D71" t="s">
         <v>4</v>
@@ -2089,10 +2095,10 @@
         <v>16</v>
       </c>
       <c r="B72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C72" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D72" t="s">
         <v>15</v>
@@ -2106,10 +2112,10 @@
         <v>1</v>
       </c>
       <c r="B73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C73" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D73" t="s">
         <v>4</v>
@@ -2123,10 +2129,10 @@
         <v>1</v>
       </c>
       <c r="B74" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C74" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D74" t="s">
         <v>4</v>
@@ -2140,10 +2146,10 @@
         <v>5</v>
       </c>
       <c r="B75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C75" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D75" t="s">
         <v>4</v>
@@ -2157,10 +2163,10 @@
         <v>16</v>
       </c>
       <c r="B76" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C76" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D76" t="s">
         <v>4</v>
@@ -2177,7 +2183,7 @@
         <v>6</v>
       </c>
       <c r="C77" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D77" t="s">
         <v>0</v>
@@ -2191,10 +2197,10 @@
         <v>16</v>
       </c>
       <c r="B78" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C78" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D78" t="s">
         <v>15</v>
@@ -2205,13 +2211,13 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B79" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C79" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D79" t="s">
         <v>4</v>
@@ -2225,10 +2231,10 @@
         <v>16</v>
       </c>
       <c r="B80" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C80" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D80" t="s">
         <v>4</v>
@@ -2242,10 +2248,10 @@
         <v>16</v>
       </c>
       <c r="B81" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="C81" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D81" t="s">
         <v>4</v>
@@ -2262,7 +2268,7 @@
         <v>6</v>
       </c>
       <c r="C82" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D82" t="s">
         <v>4</v>
@@ -2279,7 +2285,7 @@
         <v>2</v>
       </c>
       <c r="C83" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D83" t="s">
         <v>4</v>
@@ -2293,10 +2299,10 @@
         <v>5</v>
       </c>
       <c r="B84" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C84" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D84" t="s">
         <v>15</v>
@@ -2310,10 +2316,10 @@
         <v>5</v>
       </c>
       <c r="B85" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C85" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D85" t="s">
         <v>15</v>
@@ -2324,13 +2330,13 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B86" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C86" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D86" t="s">
         <v>0</v>
@@ -2347,7 +2353,7 @@
         <v>6</v>
       </c>
       <c r="C87" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D87" t="s">
         <v>4</v>
@@ -2364,7 +2370,7 @@
         <v>6</v>
       </c>
       <c r="C88" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D88" t="s">
         <v>15</v>
@@ -2378,10 +2384,10 @@
         <v>16</v>
       </c>
       <c r="B89" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C89" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D89" t="s">
         <v>15</v>
@@ -2395,10 +2401,10 @@
         <v>16</v>
       </c>
       <c r="B90" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C90" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D90" t="s">
         <v>0</v>
@@ -2412,10 +2418,10 @@
         <v>16</v>
       </c>
       <c r="B91" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C91" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D91" t="s">
         <v>4</v>
@@ -2432,7 +2438,7 @@
         <v>6</v>
       </c>
       <c r="C92" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D92" t="s">
         <v>15</v>
@@ -2443,13 +2449,13 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>5</v>
+        <v>165</v>
       </c>
       <c r="B93" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C93" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D93" t="s">
         <v>4</v>
@@ -2463,10 +2469,10 @@
         <v>16</v>
       </c>
       <c r="B94" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C94" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D94" t="s">
         <v>4</v>
@@ -2480,10 +2486,10 @@
         <v>16</v>
       </c>
       <c r="B95" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C95" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D95" t="s">
         <v>0</v>
@@ -2497,10 +2503,10 @@
         <v>16</v>
       </c>
       <c r="B96" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C96" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D96" t="s">
         <v>15</v>
@@ -2517,7 +2523,7 @@
         <v>6</v>
       </c>
       <c r="C97" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D97" t="s">
         <v>4</v>
@@ -2531,10 +2537,10 @@
         <v>16</v>
       </c>
       <c r="B98" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C98" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D98" t="s">
         <v>4</v>
@@ -2548,10 +2554,10 @@
         <v>16</v>
       </c>
       <c r="B99" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C99" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D99" t="s">
         <v>0</v>
@@ -2568,7 +2574,7 @@
         <v>2</v>
       </c>
       <c r="C100" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D100" t="s">
         <v>0</v>
@@ -2582,10 +2588,10 @@
         <v>16</v>
       </c>
       <c r="B101" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C101" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D101" t="s">
         <v>4</v>
@@ -2599,10 +2605,10 @@
         <v>1</v>
       </c>
       <c r="B102" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C102" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D102" t="s">
         <v>15</v>
@@ -2619,7 +2625,7 @@
         <v>2</v>
       </c>
       <c r="C103" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D103" t="s">
         <v>0</v>
@@ -2636,7 +2642,7 @@
         <v>2</v>
       </c>
       <c r="C104" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D104" t="s">
         <v>15</v>
@@ -2650,10 +2656,10 @@
         <v>1</v>
       </c>
       <c r="B105" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C105" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D105" t="s">
         <v>15</v>
@@ -2667,10 +2673,10 @@
         <v>1</v>
       </c>
       <c r="B106" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C106" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D106" t="s">
         <v>0</v>
@@ -2684,10 +2690,10 @@
         <v>16</v>
       </c>
       <c r="B107" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C107" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D107" t="s">
         <v>4</v>
@@ -2704,7 +2710,7 @@
         <v>6</v>
       </c>
       <c r="C108" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D108" t="s">
         <v>4</v>
@@ -2718,10 +2724,10 @@
         <v>10</v>
       </c>
       <c r="B109" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C109" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D109" t="s">
         <v>15</v>
@@ -2738,7 +2744,7 @@
         <v>6</v>
       </c>
       <c r="C110" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D110" t="s">
         <v>4</v>
@@ -2755,7 +2761,7 @@
         <v>2</v>
       </c>
       <c r="C111" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D111" t="s">
         <v>0</v>
@@ -2766,13 +2772,13 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B112" t="s">
-        <v>2</v>
+        <v>163</v>
       </c>
       <c r="C112" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="D112" t="s">
         <v>4</v>
@@ -2786,10 +2792,10 @@
         <v>16</v>
       </c>
       <c r="B113" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C113" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D113" t="s">
         <v>4</v>
@@ -2806,7 +2812,7 @@
         <v>6</v>
       </c>
       <c r="C114" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D114" t="s">
         <v>4</v>
@@ -2820,10 +2826,10 @@
         <v>5</v>
       </c>
       <c r="B115" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C115" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D115" t="s">
         <v>0</v>
@@ -2840,7 +2846,7 @@
         <v>6</v>
       </c>
       <c r="C116" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D116" t="s">
         <v>4</v>
@@ -2857,7 +2863,7 @@
         <v>6</v>
       </c>
       <c r="C117" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D117" t="s">
         <v>4</v>
@@ -2871,10 +2877,10 @@
         <v>10</v>
       </c>
       <c r="B118" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C118" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D118" t="s">
         <v>4</v>
@@ -2888,10 +2894,10 @@
         <v>5</v>
       </c>
       <c r="B119" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C119" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D119" t="s">
         <v>4</v>
@@ -2905,10 +2911,10 @@
         <v>16</v>
       </c>
       <c r="B120" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C120" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D120" t="s">
         <v>4</v>
@@ -2925,7 +2931,7 @@
         <v>6</v>
       </c>
       <c r="C121" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D121" t="s">
         <v>4</v>
@@ -2942,7 +2948,7 @@
         <v>6</v>
       </c>
       <c r="C122" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D122" t="s">
         <v>15</v>
@@ -2959,7 +2965,7 @@
         <v>6</v>
       </c>
       <c r="C123" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D123" t="s">
         <v>4</v>
@@ -2976,7 +2982,7 @@
         <v>6</v>
       </c>
       <c r="C124" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D124" t="s">
         <v>4</v>
@@ -2993,7 +2999,7 @@
         <v>11</v>
       </c>
       <c r="C125" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D125" t="s">
         <v>4</v>
@@ -3007,10 +3013,10 @@
         <v>16</v>
       </c>
       <c r="B126" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C126" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D126" t="s">
         <v>4</v>
@@ -3024,10 +3030,10 @@
         <v>16</v>
       </c>
       <c r="B127" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C127" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D127" t="s">
         <v>4</v>
@@ -3044,7 +3050,7 @@
         <v>2</v>
       </c>
       <c r="C128" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D128" t="s">
         <v>4</v>
@@ -3061,7 +3067,7 @@
         <v>6</v>
       </c>
       <c r="C129" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D129" t="s">
         <v>4</v>
@@ -3072,13 +3078,13 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B130" t="s">
         <v>6</v>
       </c>
       <c r="C130" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D130" t="s">
         <v>0</v>
@@ -3092,10 +3098,10 @@
         <v>16</v>
       </c>
       <c r="B131" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C131" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D131" t="s">
         <v>4</v>
@@ -3112,7 +3118,7 @@
         <v>2</v>
       </c>
       <c r="C132" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D132" t="s">
         <v>0</v>
@@ -3129,7 +3135,7 @@
         <v>2</v>
       </c>
       <c r="C133" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D133" t="s">
         <v>4</v>
@@ -3143,10 +3149,10 @@
         <v>16</v>
       </c>
       <c r="B134" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C134" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D134" t="s">
         <v>15</v>
